--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzmahler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9168FE71-0F00-1247-8A47-89E53238DAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F060D0-333B-8A4A-B621-9361E84C1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -587,10 +587,10 @@
         <v>45305</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>972</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -598,10 +598,10 @@
         <v>45306</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1144</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -609,10 +609,10 @@
         <v>45307</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1316</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -620,10 +620,10 @@
         <v>45308</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>1488</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -631,10 +631,10 @@
         <v>45309</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>1660</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -642,10 +642,10 @@
         <v>45310</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1832</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,10 +653,10 @@
         <v>45311</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>2004</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -664,10 +664,10 @@
         <v>45312</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>2176</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -675,10 +675,10 @@
         <v>45313</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>2348</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -686,10 +686,10 @@
         <v>45314</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2520</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -697,10 +697,10 @@
         <v>45315</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>2692</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -708,10 +708,10 @@
         <v>45316</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>2864</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -719,10 +719,10 @@
         <v>45317</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>3036</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>3208</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -744,7 +744,7 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>3380</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -752,10 +752,10 @@
         <v>45320</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>3552</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -763,10 +763,10 @@
         <v>45321</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>3724</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -774,10 +774,10 @@
         <v>45322</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>3896</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -785,10 +785,10 @@
         <v>45323</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>4068</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -796,10 +796,10 @@
         <v>45324</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>4240</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -807,10 +807,10 @@
         <v>45325</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>4412</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -818,10 +818,10 @@
         <v>45326</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>4584</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -829,10 +829,10 @@
         <v>45327</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>4756</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -840,10 +840,10 @@
         <v>45328</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>4928</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -851,10 +851,10 @@
         <v>45329</v>
       </c>
       <c r="B39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>5100</v>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzmahler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F060D0-333B-8A4A-B621-9361E84C1AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1BB0F6-9873-8C4E-9B6C-F81691C94B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Spotify</t>
-  </si>
-  <si>
-    <t>Netflix</t>
   </si>
   <si>
     <t>Date</t>
@@ -417,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -430,13 +424,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -528,334 +522,67 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45300</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>-10</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>45301</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>-100</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45302</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>-10</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>45303</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>3200</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45304</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>-800</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>45305</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>3000</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>45306</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>45307</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>45308</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>45309</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>45310</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>45311</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>45312</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>45313</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>45314</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>45315</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>45316</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>45317</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>45318</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>45319</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>45320</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>45321</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>45324</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>45326</v>
-      </c>
-      <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>45327</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>45328</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>45329</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>3200</v>
-      </c>
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzmahler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1BB0F6-9873-8C4E-9B6C-F81691C94B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABF374-17AB-D247-B6D3-2AA03F32A2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,66 +522,130 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3000</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>-800</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-100</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>-30</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>-250</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>-250</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
     </row>
   </sheetData>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -1,60 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzmahler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95ABF374-17AB-D247-B6D3-2AA03F32A2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D82A56C1-5E4C-AF41-8628-C01D581A5C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="500" windowWidth="28560" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="30">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>Part-time Job</t>
+  </si>
+  <si>
+    <t>Electricity Bill</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Public Transport</t>
+  </si>
+  <si>
+    <t>Mobile Phone Bill</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Refund</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Living Expenses</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Insurances</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Clothing &amp; Shoes</t>
+  </si>
+  <si>
+    <t>Health &amp; Fitness</t>
+  </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Gehalt</t>
-  </si>
-  <si>
-    <t>Miete</t>
-  </si>
-  <si>
-    <t>Rewe</t>
-  </si>
-  <si>
-    <t>Kino</t>
-  </si>
-  <si>
-    <t>Werkstatt</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,12 +174,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -127,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -167,7 +241,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -201,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -235,9 +310,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,244 +487,1923 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>-49.01</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-372.03</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-56.47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>-277.24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>-128.81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>-333.96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C8">
+        <v>-410.85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>-94.76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="C10">
+        <v>896.89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>941.76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>-139.25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>-228.85</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>-292.94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>763.76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>-485.93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>-456.09</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>-17.71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>-345.36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>1629.29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>278.11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>360.8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>520.27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>1833.65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1455.23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>426.9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>242.49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>1087.71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>-300.79000000000002</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>-324.43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>623.25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>755.2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>1976.99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1018.98</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>-70.52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>-328.98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>1084.8699999999999</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>1508.97</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>344.64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>-310.77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>1044.1500000000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>1054.49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>-70.37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>-199.22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>491.71</v>
+      </c>
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>1890.06</v>
+      </c>
+      <c r="D46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>-132.6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>-296.99</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>-28.66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>-101.29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>1951.34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>1100.92</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>1569.37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>-233.6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>-171.15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>1286.04</v>
+      </c>
+      <c r="D56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>-271.74</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1493.23</v>
+      </c>
+      <c r="D58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>403.2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>-156.47999999999999</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>-142.72</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>-161.81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1400.79</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>-359.76</v>
+      </c>
+      <c r="D64" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>-497.29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>-462.43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>-404.78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>-446.81</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <v>-403.75</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>-297.64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>-288.42</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>-390.63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>-72.11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74">
+        <v>-36.909999999999997</v>
+      </c>
+      <c r="D74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>-200.93</v>
+      </c>
+      <c r="D75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>-83.04</v>
+      </c>
+      <c r="D76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>-346.3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78">
+        <v>155.29</v>
+      </c>
+      <c r="D78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>1276.77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80">
+        <v>1317.59</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B81" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>-331.94</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>-466.08</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>-302.69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>-143.09</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>1321.63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>425.55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>-330.64</v>
+      </c>
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>-245.79</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>1599.03</v>
+      </c>
+      <c r="D89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>768.06</v>
+      </c>
+      <c r="D90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>-173.89</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>-343.64</v>
+      </c>
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>-285.25</v>
+      </c>
+      <c r="D93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94">
+        <v>441.72</v>
+      </c>
+      <c r="D94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95">
+        <v>648.32000000000005</v>
+      </c>
+      <c r="D95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>1995.87</v>
+      </c>
+      <c r="D96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97">
+        <v>-184.24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>162.96</v>
+      </c>
+      <c r="D98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>728.08</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>941.12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>147.75</v>
+      </c>
+      <c r="D101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102">
+        <v>-413.48</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>1813.84</v>
+      </c>
+      <c r="D103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>-326.33999999999997</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>-293.14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
         <v>45292</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>815.42</v>
+      </c>
+      <c r="D107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
         <v>45293</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108">
+        <v>-139.97</v>
+      </c>
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
         <v>45294</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>-362.31</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>-410.51</v>
+      </c>
+      <c r="D110" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111">
+        <v>1471.42</v>
+      </c>
+      <c r="D111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>-328.13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>-28.77</v>
+      </c>
+      <c r="D113" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>-111.21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>-351.98</v>
+      </c>
+      <c r="D115" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>-299.92</v>
+      </c>
+      <c r="D116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>-484.46</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118">
+        <v>1335.9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>-92.73</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120">
+        <v>1256.82</v>
+      </c>
+      <c r="D120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121">
+        <v>-408.3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122">
+        <v>1681.03</v>
+      </c>
+      <c r="D122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>-110.51</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>1833.36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>-243.48</v>
+      </c>
+      <c r="D125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>316.51</v>
+      </c>
+      <c r="D126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B127" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45295</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C127">
+        <v>-25.46</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>1389.01</v>
+      </c>
+      <c r="D128" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>295.7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130">
+        <v>112.21</v>
+      </c>
+      <c r="D130" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131">
+        <v>127.47</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>1076.1600000000001</v>
+      </c>
+      <c r="D132" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B133" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45296</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>45297</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>45298</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C133">
+        <v>-237.51</v>
+      </c>
+      <c r="D133" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>1900.42</v>
+      </c>
+      <c r="D134" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135">
+        <v>351.92</v>
+      </c>
+      <c r="D135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B136" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>45299</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45323</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>45324</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>-800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>45325</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>45326</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
-        <v>45327</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>45328</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>-250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>45329</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
-        <v>45330</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="C136">
+        <v>-60.51</v>
+      </c>
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moritzmahler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B902163-6759-7045-8E81-31E05AC6C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5256B50F-CE29-9F49-B0F1-99C20CD14D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26380" yWindow="1920" windowWidth="27700" windowHeight="21640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -159,7 +159,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1861,97 +1861,97 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>45325</v>
+        <v>45326</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>1681</v>
+        <v>-111</v>
       </c>
       <c r="D100" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>45326</v>
+        <v>45328</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C101">
-        <v>-111</v>
+        <v>1833</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>45328</v>
+        <v>45329</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C102">
-        <v>1833</v>
+        <v>-243</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C103">
-        <v>-243</v>
+        <v>317</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104">
-        <v>317</v>
+        <v>-25</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>45334</v>
+        <v>45339</v>
       </c>
       <c r="B105" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C105">
-        <v>-25</v>
+        <v>296</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>45337</v>
+        <v>45342</v>
       </c>
       <c r="B106" t="s">
         <v>9</v>
       </c>
       <c r="C106">
-        <v>1389</v>
+        <v>112</v>
       </c>
       <c r="D106" t="s">
         <v>23</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>45339</v>
+        <v>45344</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
         <v>23</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>45342</v>
+        <v>45346</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108">
-        <v>112</v>
+        <v>1076</v>
       </c>
       <c r="D108" t="s">
         <v>23</v>
@@ -1987,27 +1987,27 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C109">
-        <v>127</v>
+        <v>-238</v>
       </c>
       <c r="D109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>45346</v>
+        <v>45350</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C110">
-        <v>1076</v>
+        <v>352</v>
       </c>
       <c r="D110" t="s">
         <v>23</v>
@@ -2015,57 +2015,15 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C111">
-        <v>-238</v>
+        <v>-61</v>
       </c>
       <c r="D111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
-        <v>45348</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112">
-        <v>1900</v>
-      </c>
-      <c r="D112" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
-        <v>45350</v>
-      </c>
-      <c r="B113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113">
-        <v>352</v>
-      </c>
-      <c r="D113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
-        <v>45351</v>
-      </c>
-      <c r="B114" t="s">
-        <v>6</v>
-      </c>
-      <c r="C114">
-        <v>-61</v>
-      </c>
-      <c r="D114" t="s">
         <v>22</v>
       </c>
     </row>
